--- a/output.xlsx
+++ b/output.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>PIN</t>
   </si>
@@ -48,6 +48,12 @@
   </si>
   <si>
     <t>Registered</t>
+  </si>
+  <si>
+    <t>A012263031p</t>
+  </si>
+  <si>
+    <t>Invalid PIN</t>
   </si>
 </sst>
 </file>
@@ -365,11 +371,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -401,254 +412,16 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13365" windowHeight="9330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13365" windowHeight="7260"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="201">
   <si>
     <t>PIN</t>
   </si>
@@ -38,10 +38,16 @@
     <t>iTax Status</t>
   </si>
   <si>
-    <t>A012263031Z</t>
-  </si>
-  <si>
-    <t>Phil Kipkemboi</t>
+    <t>A001290732B</t>
+  </si>
+  <si>
+    <t>Invalid PIN</t>
+  </si>
+  <si>
+    <t>A008372177Y</t>
+  </si>
+  <si>
+    <t>Leano Lekoloi</t>
   </si>
   <si>
     <t>Active</t>
@@ -50,10 +56,577 @@
     <t>Registered</t>
   </si>
   <si>
-    <t>A012263031p</t>
-  </si>
-  <si>
-    <t>Invalid PIN</t>
+    <t>A009055028N</t>
+  </si>
+  <si>
+    <t>Lengeto Lengironi</t>
+  </si>
+  <si>
+    <t>iPage Updated</t>
+  </si>
+  <si>
+    <t>A005088521Q</t>
+  </si>
+  <si>
+    <t>Alfred Lihanda Luvisia</t>
+  </si>
+  <si>
+    <t>A005560760T</t>
+  </si>
+  <si>
+    <t>Simon Shiraku Omutiti</t>
+  </si>
+  <si>
+    <t>A006118965B</t>
+  </si>
+  <si>
+    <t>JOSEPHINE MORAA NDIGWAH</t>
+  </si>
+  <si>
+    <t>A007396829G</t>
+  </si>
+  <si>
+    <t>Pius Mwanzia Philip</t>
+  </si>
+  <si>
+    <t>A006511710Z</t>
+  </si>
+  <si>
+    <t>Wycliffe Anzigare Mwanzali</t>
+  </si>
+  <si>
+    <t>A006682858J</t>
+  </si>
+  <si>
+    <t>Deborah Amos Wella</t>
+  </si>
+  <si>
+    <t>A009742812R</t>
+  </si>
+  <si>
+    <t>MARIA  WANZA  AWORI</t>
+  </si>
+  <si>
+    <t>A003604134L</t>
+  </si>
+  <si>
+    <t>Stephen Ambehi Mashedi</t>
+  </si>
+  <si>
+    <t>A002273436K</t>
+  </si>
+  <si>
+    <t>STEPHEN NGURU BUKU</t>
+  </si>
+  <si>
+    <t>iPage Not Updated</t>
+  </si>
+  <si>
+    <t>A004677590P</t>
+  </si>
+  <si>
+    <t>Ojwach Benard Omenda</t>
+  </si>
+  <si>
+    <t>A006759573U</t>
+  </si>
+  <si>
+    <t>JOYCE AKINYI ACHAYO</t>
+  </si>
+  <si>
+    <t>A007031892O</t>
+  </si>
+  <si>
+    <t>Alphonce Omondi Masawa</t>
+  </si>
+  <si>
+    <t>A004093906J</t>
+  </si>
+  <si>
+    <t>Emily Akoth Ongaro</t>
+  </si>
+  <si>
+    <t>A002462120A</t>
+  </si>
+  <si>
+    <t>Mutulu Munyoki</t>
+  </si>
+  <si>
+    <t>A002909668T</t>
+  </si>
+  <si>
+    <t>Julius Thathi Kiswii</t>
+  </si>
+  <si>
+    <t>A003048889J</t>
+  </si>
+  <si>
+    <t>Kennedy Karembu Maina</t>
+  </si>
+  <si>
+    <t>A009564970J</t>
+  </si>
+  <si>
+    <t>Joyce Cheruto</t>
+  </si>
+  <si>
+    <t>A005635555F</t>
+  </si>
+  <si>
+    <t>JACOB KAMAU KITUSA</t>
+  </si>
+  <si>
+    <t>A001315356Q</t>
+  </si>
+  <si>
+    <t>Boniface Musyoka Yumbya</t>
+  </si>
+  <si>
+    <t>A004057115F</t>
+  </si>
+  <si>
+    <t>Moses Kioko Nzioka</t>
+  </si>
+  <si>
+    <t>A003109022D</t>
+  </si>
+  <si>
+    <t>Richard Kipruto Yegon</t>
+  </si>
+  <si>
+    <t>A004657449J</t>
+  </si>
+  <si>
+    <t>Doreen Kavuli Manthi</t>
+  </si>
+  <si>
+    <t>A009565002Q</t>
+  </si>
+  <si>
+    <t>Agnes Mwaka Wakalo</t>
+  </si>
+  <si>
+    <t>A009651117J</t>
+  </si>
+  <si>
+    <t>Neema Mark Rayia</t>
+  </si>
+  <si>
+    <t>A002753248W</t>
+  </si>
+  <si>
+    <t>Caroline Kerubo Okioga</t>
+  </si>
+  <si>
+    <t>A002820013Z</t>
+  </si>
+  <si>
+    <t>Priscillah Wanjiru Wachu</t>
+  </si>
+  <si>
+    <t>A002704752W</t>
+  </si>
+  <si>
+    <t>Henry Cheruiyot Changwony</t>
+  </si>
+  <si>
+    <t>A008339704X</t>
+  </si>
+  <si>
+    <t>Sarah Alison Rank</t>
+  </si>
+  <si>
+    <t>A003655950E</t>
+  </si>
+  <si>
+    <t>Laurah Wangui Kamau</t>
+  </si>
+  <si>
+    <t>A009480425N</t>
+  </si>
+  <si>
+    <t>Jimmy Rubagisa Kasongo</t>
+  </si>
+  <si>
+    <t>A004836339G</t>
+  </si>
+  <si>
+    <t>Michael Katana Thoya</t>
+  </si>
+  <si>
+    <t>A004098164Z</t>
+  </si>
+  <si>
+    <t>Naom Nyanchama Mogeni</t>
+  </si>
+  <si>
+    <t>A005124503X</t>
+  </si>
+  <si>
+    <t>Grace Naliaka Khamusini</t>
+  </si>
+  <si>
+    <t>A004078154V</t>
+  </si>
+  <si>
+    <t>Martin Koori Gachoki</t>
+  </si>
+  <si>
+    <t>A004861823R</t>
+  </si>
+  <si>
+    <t>FELIX  YAA BAYA</t>
+  </si>
+  <si>
+    <t>A003254684X</t>
+  </si>
+  <si>
+    <t>Rose Kanana Muthuri</t>
+  </si>
+  <si>
+    <t>A004439115P</t>
+  </si>
+  <si>
+    <t>Mercy Nyaguthii Njai</t>
+  </si>
+  <si>
+    <t>A001239575D</t>
+  </si>
+  <si>
+    <t>Thomas Valentine Ongogo</t>
+  </si>
+  <si>
+    <t>A005100121L</t>
+  </si>
+  <si>
+    <t>Christopher Bundi Rwanda</t>
+  </si>
+  <si>
+    <t>A009751660Y</t>
+  </si>
+  <si>
+    <t>SHARON OKUNYUK OMONGOT</t>
+  </si>
+  <si>
+    <t>A004831725P</t>
+  </si>
+  <si>
+    <t>MARYAN NOOR MADOBE</t>
+  </si>
+  <si>
+    <t>A006227279E</t>
+  </si>
+  <si>
+    <t>LOKAALE EWALAN PAUL</t>
+  </si>
+  <si>
+    <t>A005132452E</t>
+  </si>
+  <si>
+    <t>DANSON LUSOMO</t>
+  </si>
+  <si>
+    <t>A007063870S</t>
+  </si>
+  <si>
+    <t>Felix Mwaura</t>
+  </si>
+  <si>
+    <t>A009094699K</t>
+  </si>
+  <si>
+    <t>Hudson Makewa Mbindyo</t>
+  </si>
+  <si>
+    <t>A008072256Z</t>
+  </si>
+  <si>
+    <t>Bilha Nyambura Kahama</t>
+  </si>
+  <si>
+    <t>A006708545H</t>
+  </si>
+  <si>
+    <t>DOROTHY  AWUOR OSIRO</t>
+  </si>
+  <si>
+    <t>A007180879W</t>
+  </si>
+  <si>
+    <t>Ivan Ambasi Imbwaga</t>
+  </si>
+  <si>
+    <t>A007180984U</t>
+  </si>
+  <si>
+    <t>Okoth Born Arito</t>
+  </si>
+  <si>
+    <t>A009107081S</t>
+  </si>
+  <si>
+    <t>Catherine Anyanga Gadi</t>
+  </si>
+  <si>
+    <t>A005524234O</t>
+  </si>
+  <si>
+    <t>ANDREW MUHORO MUGURE</t>
+  </si>
+  <si>
+    <t>A005122743D</t>
+  </si>
+  <si>
+    <t>John Ndungu Kabue</t>
+  </si>
+  <si>
+    <t>A006922236V</t>
+  </si>
+  <si>
+    <t>Emily Mnyazi Lewa</t>
+  </si>
+  <si>
+    <t>A007070463K</t>
+  </si>
+  <si>
+    <t>Frankline John Omondi</t>
+  </si>
+  <si>
+    <t>A009345126R</t>
+  </si>
+  <si>
+    <t>TABITHA KERUBO KURENDI</t>
+  </si>
+  <si>
+    <t>A003266674C</t>
+  </si>
+  <si>
+    <t>Timothy Mawira Kamunde</t>
+  </si>
+  <si>
+    <t>A007283546T</t>
+  </si>
+  <si>
+    <t>Oscar Luvembe</t>
+  </si>
+  <si>
+    <t>A004804441S</t>
+  </si>
+  <si>
+    <t>Yussuf Abdi Hussein</t>
+  </si>
+  <si>
+    <t>A009253559Z</t>
+  </si>
+  <si>
+    <t>Jackline Kang'eleha</t>
+  </si>
+  <si>
+    <t>A009105695A</t>
+  </si>
+  <si>
+    <t>Wycliff Ouma Oyoo</t>
+  </si>
+  <si>
+    <t>A008421417C</t>
+  </si>
+  <si>
+    <t>COSMAS NDIKU MBITHI</t>
+  </si>
+  <si>
+    <t>A009237444X</t>
+  </si>
+  <si>
+    <t>Felix Kilonzo Nthenge</t>
+  </si>
+  <si>
+    <t>A007369136B</t>
+  </si>
+  <si>
+    <t>BENARD MUTUKU NYIKA</t>
+  </si>
+  <si>
+    <t>A008192112X</t>
+  </si>
+  <si>
+    <t>EVANSON KARIUKI KARANJA</t>
+  </si>
+  <si>
+    <t>A007679869C</t>
+  </si>
+  <si>
+    <t>Gideon Ondako Maina</t>
+  </si>
+  <si>
+    <t>A009514148W</t>
+  </si>
+  <si>
+    <t>KENNEDY OCHIENG OUMA</t>
+  </si>
+  <si>
+    <t>A009393910N</t>
+  </si>
+  <si>
+    <t>Zachariah Nyandika Osiemo</t>
+  </si>
+  <si>
+    <t>A006202664N</t>
+  </si>
+  <si>
+    <t>SAMWEL  ONYANGO OMENGO</t>
+  </si>
+  <si>
+    <t>A009557604B</t>
+  </si>
+  <si>
+    <t>Sumpati Masieng Puruo</t>
+  </si>
+  <si>
+    <t>A004501972R</t>
+  </si>
+  <si>
+    <t>Moses Leseiyo Parken</t>
+  </si>
+  <si>
+    <t>A002158138Z</t>
+  </si>
+  <si>
+    <t>J WANDERI GACHUHI</t>
+  </si>
+  <si>
+    <t>A005127018E</t>
+  </si>
+  <si>
+    <t>Mary Wacera Mwangi</t>
+  </si>
+  <si>
+    <t>A003544185A</t>
+  </si>
+  <si>
+    <t>WEI GAO</t>
+  </si>
+  <si>
+    <t>A008778978F</t>
+  </si>
+  <si>
+    <t>Adan Abduba Dengicha</t>
+  </si>
+  <si>
+    <t>A006987498F</t>
+  </si>
+  <si>
+    <t>MOSES OWINO OGOKHA</t>
+  </si>
+  <si>
+    <t>A009540333M</t>
+  </si>
+  <si>
+    <t>Hamdani Amiri Mkongo</t>
+  </si>
+  <si>
+    <t>A009491734R</t>
+  </si>
+  <si>
+    <t>Kevin Kiptanui Ramdas</t>
+  </si>
+  <si>
+    <t>A007069074C</t>
+  </si>
+  <si>
+    <t>FINLAY NYASWABU GESORA</t>
+  </si>
+  <si>
+    <t>A005596602X</t>
+  </si>
+  <si>
+    <t>Erastus Omondi Okoth</t>
+  </si>
+  <si>
+    <t>A006461572R</t>
+  </si>
+  <si>
+    <t>DOMINIC MUEMA MULE</t>
+  </si>
+  <si>
+    <t>A007445897P</t>
+  </si>
+  <si>
+    <t>Wycliffe Kasavuli Singa</t>
+  </si>
+  <si>
+    <t>A007241434D</t>
+  </si>
+  <si>
+    <t>JOSHUA NYAATA MORUYE</t>
+  </si>
+  <si>
+    <t>A007931616P</t>
+  </si>
+  <si>
+    <t>JACKSON MUTUKU WAMBUA</t>
+  </si>
+  <si>
+    <t>A002663781D</t>
+  </si>
+  <si>
+    <t>Evelyne Owino</t>
+  </si>
+  <si>
+    <t>A007259667M</t>
+  </si>
+  <si>
+    <t>Caroline Nekesa Sikuku</t>
+  </si>
+  <si>
+    <t>A008756112U</t>
+  </si>
+  <si>
+    <t>Gladys Ruguru Ndwiga</t>
+  </si>
+  <si>
+    <t>A006470979E</t>
+  </si>
+  <si>
+    <t>MIRIAM  WANGUI KAMAU</t>
+  </si>
+  <si>
+    <t>A005090677S</t>
+  </si>
+  <si>
+    <t>Elphas Khaiya</t>
+  </si>
+  <si>
+    <t>A002923545X</t>
+  </si>
+  <si>
+    <t>Liz Mbula Mutinda</t>
+  </si>
+  <si>
+    <t>A000000000A</t>
+  </si>
+  <si>
+    <t>A005073971T</t>
+  </si>
+  <si>
+    <t>FEISAL  OKACHA MULAMA</t>
+  </si>
+  <si>
+    <t>A005063460K</t>
+  </si>
+  <si>
+    <t>Wilson Mathias Olwete</t>
+  </si>
+  <si>
+    <t>A009112971O</t>
+  </si>
+  <si>
+    <t>Mary Ahono Ondunyi</t>
+  </si>
+  <si>
+    <t>A008572897P</t>
+  </si>
+  <si>
+    <t>PETER   NJUGUNA</t>
   </si>
 </sst>
 </file>
@@ -371,16 +944,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -404,23 +972,1381 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>88</v>
+      </c>
+      <c r="B44" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>90</v>
+      </c>
+      <c r="B45" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>92</v>
+      </c>
+      <c r="B46" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>94</v>
+      </c>
+      <c r="B47" t="s">
+        <v>95</v>
+      </c>
+      <c r="C47" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>96</v>
+      </c>
+      <c r="B48" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>98</v>
+      </c>
+      <c r="B49" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>100</v>
+      </c>
+      <c r="B50" t="s">
+        <v>101</v>
+      </c>
+      <c r="C50" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>102</v>
+      </c>
+      <c r="B51" t="s">
+        <v>103</v>
+      </c>
+      <c r="C51" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>104</v>
+      </c>
+      <c r="B52" t="s">
+        <v>105</v>
+      </c>
+      <c r="C52" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>106</v>
+      </c>
+      <c r="B53" t="s">
+        <v>107</v>
+      </c>
+      <c r="C53" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>108</v>
+      </c>
+      <c r="B54" t="s">
+        <v>109</v>
+      </c>
+      <c r="C54" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>110</v>
+      </c>
+      <c r="B55" t="s">
+        <v>111</v>
+      </c>
+      <c r="C55" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>112</v>
+      </c>
+      <c r="B56" t="s">
+        <v>113</v>
+      </c>
+      <c r="C56" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>114</v>
+      </c>
+      <c r="B57" t="s">
+        <v>115</v>
+      </c>
+      <c r="C57" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>116</v>
+      </c>
+      <c r="B58" t="s">
+        <v>117</v>
+      </c>
+      <c r="C58" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>118</v>
+      </c>
+      <c r="B59" t="s">
+        <v>119</v>
+      </c>
+      <c r="C59" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>120</v>
+      </c>
+      <c r="B60" t="s">
+        <v>121</v>
+      </c>
+      <c r="C60" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>122</v>
+      </c>
+      <c r="B61" t="s">
+        <v>123</v>
+      </c>
+      <c r="C61" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>124</v>
+      </c>
+      <c r="B62" t="s">
+        <v>125</v>
+      </c>
+      <c r="C62" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>126</v>
+      </c>
+      <c r="B63" t="s">
+        <v>127</v>
+      </c>
+      <c r="C63" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>128</v>
+      </c>
+      <c r="B64" t="s">
+        <v>129</v>
+      </c>
+      <c r="C64" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>130</v>
+      </c>
+      <c r="B65" t="s">
+        <v>131</v>
+      </c>
+      <c r="C65" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>132</v>
+      </c>
+      <c r="B66" t="s">
+        <v>133</v>
+      </c>
+      <c r="C66" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>134</v>
+      </c>
+      <c r="B67" t="s">
+        <v>135</v>
+      </c>
+      <c r="C67" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>136</v>
+      </c>
+      <c r="B68" t="s">
+        <v>137</v>
+      </c>
+      <c r="C68" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>138</v>
+      </c>
+      <c r="B69" t="s">
+        <v>139</v>
+      </c>
+      <c r="C69" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>140</v>
+      </c>
+      <c r="B70" t="s">
+        <v>141</v>
+      </c>
+      <c r="C70" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>142</v>
+      </c>
+      <c r="B71" t="s">
+        <v>143</v>
+      </c>
+      <c r="C71" t="s">
+        <v>8</v>
+      </c>
+      <c r="D71" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>144</v>
+      </c>
+      <c r="B72" t="s">
+        <v>145</v>
+      </c>
+      <c r="C72" t="s">
+        <v>8</v>
+      </c>
+      <c r="D72" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>146</v>
+      </c>
+      <c r="B73" t="s">
+        <v>147</v>
+      </c>
+      <c r="C73" t="s">
+        <v>8</v>
+      </c>
+      <c r="D73" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>148</v>
+      </c>
+      <c r="B74" t="s">
+        <v>149</v>
+      </c>
+      <c r="C74" t="s">
+        <v>8</v>
+      </c>
+      <c r="D74" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>150</v>
+      </c>
+      <c r="B75" t="s">
+        <v>151</v>
+      </c>
+      <c r="C75" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>152</v>
+      </c>
+      <c r="B76" t="s">
+        <v>153</v>
+      </c>
+      <c r="C76" t="s">
+        <v>8</v>
+      </c>
+      <c r="D76" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>154</v>
+      </c>
+      <c r="B77" t="s">
+        <v>155</v>
+      </c>
+      <c r="C77" t="s">
+        <v>8</v>
+      </c>
+      <c r="D77" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>156</v>
+      </c>
+      <c r="B78" t="s">
+        <v>157</v>
+      </c>
+      <c r="C78" t="s">
+        <v>8</v>
+      </c>
+      <c r="D78" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>158</v>
+      </c>
+      <c r="B79" t="s">
+        <v>159</v>
+      </c>
+      <c r="C79" t="s">
+        <v>8</v>
+      </c>
+      <c r="D79" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>160</v>
+      </c>
+      <c r="B80" t="s">
+        <v>161</v>
+      </c>
+      <c r="C80" t="s">
+        <v>8</v>
+      </c>
+      <c r="D80" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>162</v>
+      </c>
+      <c r="B81" t="s">
+        <v>163</v>
+      </c>
+      <c r="C81" t="s">
+        <v>8</v>
+      </c>
+      <c r="D81" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>164</v>
+      </c>
+      <c r="B82" t="s">
+        <v>165</v>
+      </c>
+      <c r="C82" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>166</v>
+      </c>
+      <c r="B83" t="s">
+        <v>167</v>
+      </c>
+      <c r="C83" t="s">
+        <v>8</v>
+      </c>
+      <c r="D83" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>168</v>
+      </c>
+      <c r="B84" t="s">
+        <v>169</v>
+      </c>
+      <c r="C84" t="s">
+        <v>8</v>
+      </c>
+      <c r="D84" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>170</v>
+      </c>
+      <c r="B85" t="s">
+        <v>171</v>
+      </c>
+      <c r="C85" t="s">
+        <v>8</v>
+      </c>
+      <c r="D85" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>172</v>
+      </c>
+      <c r="B86" t="s">
+        <v>173</v>
+      </c>
+      <c r="C86" t="s">
+        <v>8</v>
+      </c>
+      <c r="D86" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>174</v>
+      </c>
+      <c r="B87" t="s">
+        <v>175</v>
+      </c>
+      <c r="C87" t="s">
+        <v>8</v>
+      </c>
+      <c r="D87" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>176</v>
+      </c>
+      <c r="B88" t="s">
+        <v>177</v>
+      </c>
+      <c r="C88" t="s">
+        <v>8</v>
+      </c>
+      <c r="D88" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>178</v>
+      </c>
+      <c r="B89" t="s">
+        <v>179</v>
+      </c>
+      <c r="C89" t="s">
+        <v>8</v>
+      </c>
+      <c r="D89" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>180</v>
+      </c>
+      <c r="B90" t="s">
+        <v>181</v>
+      </c>
+      <c r="C90" t="s">
+        <v>8</v>
+      </c>
+      <c r="D90" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>182</v>
+      </c>
+      <c r="B91" t="s">
+        <v>183</v>
+      </c>
+      <c r="C91" t="s">
+        <v>8</v>
+      </c>
+      <c r="D91" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>184</v>
+      </c>
+      <c r="B92" t="s">
+        <v>185</v>
+      </c>
+      <c r="C92" t="s">
+        <v>8</v>
+      </c>
+      <c r="D92" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>186</v>
+      </c>
+      <c r="B93" t="s">
+        <v>187</v>
+      </c>
+      <c r="C93" t="s">
+        <v>8</v>
+      </c>
+      <c r="D93" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>188</v>
+      </c>
+      <c r="B94" t="s">
+        <v>189</v>
+      </c>
+      <c r="C94" t="s">
+        <v>8</v>
+      </c>
+      <c r="D94" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>190</v>
+      </c>
+      <c r="B95" t="s">
+        <v>191</v>
+      </c>
+      <c r="C95" t="s">
+        <v>8</v>
+      </c>
+      <c r="D95" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>192</v>
+      </c>
+      <c r="B96" t="s">
+        <v>5</v>
+      </c>
+      <c r="C96" t="s">
+        <v>5</v>
+      </c>
+      <c r="D96" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>193</v>
+      </c>
+      <c r="B97" t="s">
+        <v>194</v>
+      </c>
+      <c r="C97" t="s">
+        <v>8</v>
+      </c>
+      <c r="D97" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>195</v>
+      </c>
+      <c r="B98" t="s">
+        <v>196</v>
+      </c>
+      <c r="C98" t="s">
+        <v>8</v>
+      </c>
+      <c r="D98" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>197</v>
+      </c>
+      <c r="B99" t="s">
+        <v>198</v>
+      </c>
+      <c r="C99" t="s">
+        <v>8</v>
+      </c>
+      <c r="D99" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>199</v>
+      </c>
+      <c r="B100" t="s">
+        <v>200</v>
+      </c>
+      <c r="C100" t="s">
+        <v>8</v>
+      </c>
+      <c r="D100" t="s">
         <v>9</v>
       </c>
     </row>
